--- a/tasksR.xlsx
+++ b/tasksR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tania\OneDrive\Skrivebord\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tania\OneDrive\Skrivebord\Thesis-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9BCEA5-CAD6-4D20-AC60-90A7500EFF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3627583-08A2-408E-847E-F6C4398539E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{043572FE-6AFA-4CB2-9482-E558C317E06A}"/>
   </bookViews>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495B7604-A522-4E69-AE76-7E00586962D3}">
   <dimension ref="A1:J481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -994,6 +994,7 @@
     <col min="2" max="2" width="17.7265625" customWidth="1"/>
     <col min="3" max="3" width="18.54296875" customWidth="1"/>
     <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
     <col min="7" max="7" width="24.26953125" customWidth="1"/>
     <col min="8" max="8" width="17.453125" customWidth="1"/>
     <col min="9" max="9" width="17.1796875" customWidth="1"/>
